--- a/biology/Zoologie/Cyrestis/Cyrestis.xlsx
+++ b/biology/Zoologie/Cyrestis/Cyrestis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyrestis est un genre de papillons de la famille des Nymphalidae. Ces espèces sont communément appelées Map Butterflies en anglais.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Cyrestis sont présentes en Australasie et, pour l'une d'entre elles, en Afrique.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (12 juin 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (12 juin 2023) :
 Cyrestis achates Butler, 1865
 Cyrestis acilia Godart, 1819
 Cyrestis adaemon Godman &amp; Salvin, 1879
@@ -600,11 +616,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cyrestis Boisduval, 1832[1].
-Funet range ce genre dans la sous-famille des Cyrestinae[2].
-Cyrestis a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Cyrestis Boisduval, 1832.
+Funet range ce genre dans la sous-famille des Cyrestinae.
+Cyrestis a pour synonymes :
 Azania Martin, 1903
 Sykophages Martin, 1903</t>
         </is>
